--- a/migracionWordPressPrestashop/Rerda 80-20 Indumentaria Militar.xlsx
+++ b/migracionWordPressPrestashop/Rerda 80-20 Indumentaria Militar.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\.shortcut-targets-by-id\1GgI6mqs7VteJaopa4KdBZAYLlVltGRnj\Juliana\RERDA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\archivos_bat\archivos_bat\migracionWordPressPrestashop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBBFA15-57BA-4863-916C-91D6C1251570}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{16806C11-CD1F-4DE4-BD82-49FF4EF4EEBF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ELIPOL" sheetId="1" r:id="rId1"/>
@@ -5332,7 +5331,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
@@ -5522,7 +5521,7 @@
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8"/>
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="4" xr:uid="{79755A12-B76A-48A7-B419-6CE19D4F4599}"/>
+    <cellStyle name="Normal 2" xfId="4"/>
     <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5834,11 +5833,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{386A9F02-2230-4EE7-A8B9-6F1336A5C2E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F119"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5846,7 +5845,7 @@
     <col min="1" max="1" width="11.42578125" style="3"/>
     <col min="2" max="2" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="56.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="0" style="3" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="13" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" style="3"/>
@@ -13480,141 +13479,141 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{048EA6BB-DA7E-4750-B21B-B457E98C6F42}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{F69BB794-227F-4822-A06E-52F897320587}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{E3E2310E-33EB-40A8-82D0-22CC3A7EEB98}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{E2C042E4-8674-41F0-8F09-A5F6BD6ECCC2}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{9EF77C03-4664-449E-8B94-8F1567B31178}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{3922E0C8-51C3-4F54-869B-9B3C3DE9C56C}"/>
-    <hyperlink ref="D8" r:id="rId7" xr:uid="{9160ADE7-5B3C-459E-8A49-A22294C3DB6D}"/>
-    <hyperlink ref="D9" r:id="rId8" xr:uid="{D0EE05A8-7C3C-4421-84FC-B857B24D45F6}"/>
-    <hyperlink ref="D10" r:id="rId9" xr:uid="{8F3A7F0B-F464-4D62-BE05-5747D888996C}"/>
-    <hyperlink ref="D11" r:id="rId10" xr:uid="{AE95B64C-8BE2-461F-937D-C739B006AB33}"/>
-    <hyperlink ref="D12" r:id="rId11" xr:uid="{3303A261-B376-4448-91A0-7DCAAFC4A5BC}"/>
-    <hyperlink ref="D13" r:id="rId12" xr:uid="{61DBC56E-2EF8-4B4B-B606-12B183C143E4}"/>
-    <hyperlink ref="D14" r:id="rId13" xr:uid="{CD8C01FA-A7B1-4835-BDAB-091BF9685057}"/>
-    <hyperlink ref="D15" r:id="rId14" xr:uid="{6C4FD95F-BDFA-4321-9B6E-2B08438369AA}"/>
-    <hyperlink ref="D16" r:id="rId15" xr:uid="{3F686190-41F5-4D32-947D-EDF26793C574}"/>
-    <hyperlink ref="D17" r:id="rId16" xr:uid="{418F2A90-0568-4614-AA06-35F4555A4BE8}"/>
-    <hyperlink ref="D18" r:id="rId17" xr:uid="{88D46EE3-E3E2-4CE8-A5C2-237D87A6939D}"/>
-    <hyperlink ref="D19" r:id="rId18" xr:uid="{D7238D2E-8B3A-4FBD-BE45-4B41AD44146B}"/>
-    <hyperlink ref="D20" r:id="rId19" xr:uid="{2F8F5DB1-EA49-4D0A-956B-927BCBF0329A}"/>
-    <hyperlink ref="D21" r:id="rId20" xr:uid="{78EC0E45-6A3D-4F93-9B26-8E230DBFE3DF}"/>
-    <hyperlink ref="D22" r:id="rId21" xr:uid="{AD2B0F5E-2064-4706-A439-02C4515A6DCB}"/>
-    <hyperlink ref="D23" r:id="rId22" xr:uid="{398F156B-14F2-4449-84B6-60724892AAFB}"/>
-    <hyperlink ref="D24" r:id="rId23" xr:uid="{6F46ED9E-1140-42CD-B48C-48167FCC30B2}"/>
-    <hyperlink ref="D25" r:id="rId24" xr:uid="{03281128-B785-421A-B9FD-34D8F6ACD1D6}"/>
-    <hyperlink ref="D26" r:id="rId25" xr:uid="{14FAA5FF-38E1-4634-9650-764E518B0E36}"/>
-    <hyperlink ref="D27" r:id="rId26" xr:uid="{78930E12-56CD-4115-81BB-EE81D6A0660C}"/>
-    <hyperlink ref="D28" r:id="rId27" xr:uid="{28100857-73AE-4EA3-969B-BA56CB291D3C}"/>
-    <hyperlink ref="D29" r:id="rId28" xr:uid="{0CF4AA7C-A567-478B-9B3D-B32339205A3F}"/>
-    <hyperlink ref="D30" r:id="rId29" xr:uid="{323BBC0F-0650-4825-8810-6F2011F62F45}"/>
-    <hyperlink ref="D31" r:id="rId30" xr:uid="{FE787AA3-1752-4827-BD92-FCAE19C6CD7A}"/>
-    <hyperlink ref="D32" r:id="rId31" xr:uid="{E4DC0FF2-093B-4091-B695-D29BC5DD25FF}"/>
-    <hyperlink ref="D33" r:id="rId32" xr:uid="{7DEE9549-4DC7-45B7-A9BF-B8B0F97A1185}"/>
-    <hyperlink ref="D34" r:id="rId33" xr:uid="{5B1951D3-F64D-464B-80E3-0B0756E0C806}"/>
-    <hyperlink ref="D35" r:id="rId34" xr:uid="{32B4208E-8960-41BB-AF5C-90A1254392F4}"/>
-    <hyperlink ref="D36" r:id="rId35" xr:uid="{2F94B880-E666-4842-8DC3-71713B71BC3F}"/>
-    <hyperlink ref="D37" r:id="rId36" xr:uid="{F44473F7-7B8A-4E6D-A034-4F45919D9900}"/>
-    <hyperlink ref="D38" r:id="rId37" xr:uid="{953D82C0-AF33-4D2A-BDFD-E8EE2783D79A}"/>
-    <hyperlink ref="D39" r:id="rId38" xr:uid="{97B43C62-349D-4264-AB15-1669F519010F}"/>
-    <hyperlink ref="D40" r:id="rId39" xr:uid="{C34B3AB6-2F15-4416-945A-20F3FE0FC9E4}"/>
-    <hyperlink ref="D41" r:id="rId40" xr:uid="{F20543F2-7B1D-4D55-B3EA-0BDB6E4033A9}"/>
-    <hyperlink ref="D42" r:id="rId41" xr:uid="{B30D8B8A-CCAB-494A-8E24-F21660F39016}"/>
-    <hyperlink ref="D43" r:id="rId42" xr:uid="{59850D73-C17B-4859-80F6-8B42762B8373}"/>
-    <hyperlink ref="D44" r:id="rId43" xr:uid="{81618BCA-E9BE-4212-A4D5-733365D53869}"/>
-    <hyperlink ref="D45" r:id="rId44" xr:uid="{A6AC3A45-4AF0-4EE2-B72D-1704A10A924C}"/>
-    <hyperlink ref="D46" r:id="rId45" xr:uid="{F0FF644F-2AE8-42E2-9EE9-682FC0150D73}"/>
-    <hyperlink ref="D47" r:id="rId46" xr:uid="{40FA1A91-8F07-44F5-9DD4-71234BED8451}"/>
-    <hyperlink ref="D48" r:id="rId47" xr:uid="{6FD6955A-95E6-4C07-B2F0-2F9BCF6D7FE8}"/>
-    <hyperlink ref="D49" r:id="rId48" xr:uid="{52F47C1A-5AB8-4AFA-9166-636CF0D600AA}"/>
-    <hyperlink ref="D50" r:id="rId49" xr:uid="{D6F5BF33-D0C3-4103-AA0D-FC9475820EDB}"/>
-    <hyperlink ref="D51" r:id="rId50" xr:uid="{54A81CD4-908E-4030-93C6-91AB04B61582}"/>
-    <hyperlink ref="D53" r:id="rId51" xr:uid="{76170C12-97B3-43E1-ABCC-AD8AABE70B2B}"/>
-    <hyperlink ref="D54" r:id="rId52" xr:uid="{42512674-D31C-4C55-89A0-A99E429898E9}"/>
-    <hyperlink ref="D55" r:id="rId53" xr:uid="{33A124E5-86A9-4FEB-AAE6-4DF19904B1BC}"/>
-    <hyperlink ref="D56" r:id="rId54" xr:uid="{8DEBAC2F-0BB6-41D0-8503-57B52D77B863}"/>
-    <hyperlink ref="D57" r:id="rId55" xr:uid="{DD13CD4B-159C-4310-80A7-75C49111A4B6}"/>
-    <hyperlink ref="D58" r:id="rId56" xr:uid="{876A1EA8-4235-47EB-96A5-45A679B1CDB6}"/>
-    <hyperlink ref="D59" r:id="rId57" xr:uid="{8A840C87-E9E9-45B7-96A8-F87F2C36A6F5}"/>
-    <hyperlink ref="D60" r:id="rId58" xr:uid="{1B13F73C-4898-481D-8F51-D6FE2A7D2EDD}"/>
-    <hyperlink ref="D61" r:id="rId59" xr:uid="{87888FF7-0C50-4CFD-AC60-5C21BF6BC70A}"/>
-    <hyperlink ref="D62" r:id="rId60" xr:uid="{3ADF07F9-127A-4E42-8F79-7234A0888B8E}"/>
-    <hyperlink ref="D63" r:id="rId61" xr:uid="{9862E9A4-BF46-49BC-A7C8-92AA546A2738}"/>
-    <hyperlink ref="D64" r:id="rId62" xr:uid="{07687818-3EC6-4B8C-B111-D7A81613FE07}"/>
-    <hyperlink ref="D65" r:id="rId63" xr:uid="{60527208-79F0-40CA-BE51-CD4AEA8E5AB3}"/>
-    <hyperlink ref="D66" r:id="rId64" xr:uid="{407706AF-546F-422F-A3E0-A464C182D3BE}"/>
-    <hyperlink ref="D67" r:id="rId65" xr:uid="{5DC00B88-DAA1-4CA8-9A31-1C5940E3C3EC}"/>
-    <hyperlink ref="D68" r:id="rId66" xr:uid="{4BCF9947-2C21-4687-8AB9-9F4D2D1F210B}"/>
-    <hyperlink ref="D69" r:id="rId67" xr:uid="{BDAED221-640A-4A0F-B80B-8441438F7760}"/>
-    <hyperlink ref="D70" r:id="rId68" xr:uid="{3CD17690-F300-4F79-AE18-05D302D7A8C2}"/>
-    <hyperlink ref="D71" r:id="rId69" xr:uid="{BD021391-0107-42DF-AEB2-66EC0186AE2E}"/>
-    <hyperlink ref="D72" r:id="rId70" xr:uid="{777C114B-BCEE-4000-8CC5-7323D8DDB789}"/>
-    <hyperlink ref="D73" r:id="rId71" xr:uid="{376EBE85-B63B-4176-9725-9960CB5985EA}"/>
-    <hyperlink ref="D74" r:id="rId72" xr:uid="{1B98003D-938C-459F-8823-EEAE30C164C3}"/>
-    <hyperlink ref="D75" r:id="rId73" xr:uid="{E96A44BB-211A-4BEC-A468-4FCBC190D7C6}"/>
-    <hyperlink ref="D76" r:id="rId74" xr:uid="{ED8C0B0A-5AE3-4D44-ADD4-38FD2076C4C1}"/>
-    <hyperlink ref="D77" r:id="rId75" xr:uid="{57FD31FA-D862-452F-A760-F564F7655221}"/>
-    <hyperlink ref="D78" r:id="rId76" xr:uid="{F00FC084-140E-4FC5-9270-34E54F91A845}"/>
-    <hyperlink ref="D79" r:id="rId77" xr:uid="{A917E7D5-80AD-42FD-9ADB-732C7F8AA8F4}"/>
-    <hyperlink ref="D80" r:id="rId78" xr:uid="{4E3F309D-D144-4862-8F06-F24C22652A6B}"/>
-    <hyperlink ref="D81" r:id="rId79" xr:uid="{6EF4419C-E50D-4A09-80A5-2844B2DDD29D}"/>
-    <hyperlink ref="D82" r:id="rId80" xr:uid="{6ECE5F65-884A-4D2C-82AA-47AA145DAB58}"/>
-    <hyperlink ref="D83" r:id="rId81" xr:uid="{F6629079-EE0E-4010-B428-F2EC72893A71}"/>
-    <hyperlink ref="D84" r:id="rId82" xr:uid="{E24E342A-AFE4-42C2-8935-10F2EC9CF6FD}"/>
-    <hyperlink ref="D85" r:id="rId83" xr:uid="{29CD0DF6-AF47-417D-B7A3-4DF02ADCB24E}"/>
-    <hyperlink ref="D86" r:id="rId84" xr:uid="{0DC4E758-37C8-4B31-BEB6-4858827A9ABC}"/>
-    <hyperlink ref="D87" r:id="rId85" xr:uid="{6349DD1E-2FFB-49B6-AAA9-0B52DA184CD7}"/>
-    <hyperlink ref="D88" r:id="rId86" xr:uid="{362A46E8-92ED-4DB6-840C-0AE2D2172BB8}"/>
-    <hyperlink ref="D89" r:id="rId87" xr:uid="{803A6BBE-5C4A-46E2-9B8E-E8E8821A48AF}"/>
-    <hyperlink ref="D90" r:id="rId88" xr:uid="{EF3B1DEA-D9E6-453E-949D-724EC7709B42}"/>
-    <hyperlink ref="D91" r:id="rId89" xr:uid="{1DBCCC12-433B-48D1-962C-2140E63103B9}"/>
-    <hyperlink ref="D93" r:id="rId90" xr:uid="{6A9635D4-B4C4-4152-BD3D-25843AA1CB36}"/>
-    <hyperlink ref="D94" r:id="rId91" xr:uid="{9385DB33-1386-4C6E-9E44-61520A272D46}"/>
-    <hyperlink ref="D95" r:id="rId92" xr:uid="{66B07F2D-7231-47AE-9C78-0C23F9F8F30E}"/>
-    <hyperlink ref="D96" r:id="rId93" xr:uid="{720D96FE-B362-4421-AF23-11646997419C}"/>
-    <hyperlink ref="D97" r:id="rId94" xr:uid="{67B0E1AC-658A-460A-B6AB-BE3AB1335ED1}"/>
-    <hyperlink ref="D98" r:id="rId95" xr:uid="{86697545-7977-40CA-A4DF-205F470ED0F8}"/>
-    <hyperlink ref="D99" r:id="rId96" xr:uid="{8BBC620C-5B79-4A61-AF00-1673CBB440D1}"/>
-    <hyperlink ref="D100" r:id="rId97" xr:uid="{0CC796A6-C75D-475A-B309-CFCE7481183C}"/>
-    <hyperlink ref="D101" r:id="rId98" xr:uid="{CE9C75A8-DCE5-4C6D-8E10-6973F42C0700}"/>
-    <hyperlink ref="D102" r:id="rId99" xr:uid="{455DC6B4-596D-44C4-A0E1-6BCE210EBF16}"/>
-    <hyperlink ref="D103" r:id="rId100" xr:uid="{F1CC9E63-F91E-4C7F-9C14-186086CC63AD}"/>
-    <hyperlink ref="D104" r:id="rId101" xr:uid="{D94B6E64-4D90-4A1A-90F4-25801C9C9455}"/>
-    <hyperlink ref="D105" r:id="rId102" xr:uid="{5B734C95-CBC2-436C-8DA0-73371BFAA03D}"/>
-    <hyperlink ref="D106" r:id="rId103" xr:uid="{024AB2ED-9D94-4F16-AF32-59EA6C7D2EF9}"/>
-    <hyperlink ref="D107" r:id="rId104" xr:uid="{3EFC26D1-E1C4-4E24-B224-E6021CE3DAEA}"/>
-    <hyperlink ref="D108" r:id="rId105" xr:uid="{197DF7C9-9136-4D55-B29E-5ACFBCDA0296}"/>
-    <hyperlink ref="D109" r:id="rId106" xr:uid="{89653D55-5D49-4DE0-8937-DEA971E75FEA}"/>
-    <hyperlink ref="D110" r:id="rId107" xr:uid="{B5EDB71E-92FE-4430-BE2A-A29555A82503}"/>
-    <hyperlink ref="D111" r:id="rId108" xr:uid="{20DACDB6-58F5-4E4F-927F-1CE39D71E325}"/>
-    <hyperlink ref="D112" r:id="rId109" xr:uid="{CCEE7B03-6870-450D-8F02-EAE803F2A321}"/>
-    <hyperlink ref="D113" r:id="rId110" xr:uid="{DF8F9D34-C990-4E19-894C-827E06F0D05E}"/>
-    <hyperlink ref="D114" r:id="rId111" xr:uid="{F2577412-9F61-4E02-ACF8-FE23AB0EE9C2}"/>
-    <hyperlink ref="D115" r:id="rId112" xr:uid="{31E6233C-44AA-4BEC-82C3-14C32793648D}"/>
-    <hyperlink ref="D116" r:id="rId113" xr:uid="{F7F73C54-174A-45EB-A577-AC84945D8B4D}"/>
-    <hyperlink ref="D117" r:id="rId114" xr:uid="{27AB5629-84CB-408A-AC13-F47605F65B6C}"/>
-    <hyperlink ref="D118" r:id="rId115" xr:uid="{C1E56E51-810D-4367-910E-15A3D469881A}"/>
-    <hyperlink ref="D119" r:id="rId116" xr:uid="{2DD595A6-6884-40DB-96CA-3DF39F7D1527}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13"/>
+    <hyperlink ref="D15" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="D18" r:id="rId17"/>
+    <hyperlink ref="D19" r:id="rId18"/>
+    <hyperlink ref="D20" r:id="rId19"/>
+    <hyperlink ref="D21" r:id="rId20"/>
+    <hyperlink ref="D22" r:id="rId21"/>
+    <hyperlink ref="D23" r:id="rId22"/>
+    <hyperlink ref="D24" r:id="rId23"/>
+    <hyperlink ref="D25" r:id="rId24"/>
+    <hyperlink ref="D26" r:id="rId25"/>
+    <hyperlink ref="D27" r:id="rId26"/>
+    <hyperlink ref="D28" r:id="rId27"/>
+    <hyperlink ref="D29" r:id="rId28"/>
+    <hyperlink ref="D30" r:id="rId29"/>
+    <hyperlink ref="D31" r:id="rId30"/>
+    <hyperlink ref="D32" r:id="rId31"/>
+    <hyperlink ref="D33" r:id="rId32"/>
+    <hyperlink ref="D34" r:id="rId33"/>
+    <hyperlink ref="D35" r:id="rId34"/>
+    <hyperlink ref="D36" r:id="rId35"/>
+    <hyperlink ref="D37" r:id="rId36"/>
+    <hyperlink ref="D38" r:id="rId37"/>
+    <hyperlink ref="D39" r:id="rId38"/>
+    <hyperlink ref="D40" r:id="rId39"/>
+    <hyperlink ref="D41" r:id="rId40"/>
+    <hyperlink ref="D42" r:id="rId41"/>
+    <hyperlink ref="D43" r:id="rId42"/>
+    <hyperlink ref="D44" r:id="rId43"/>
+    <hyperlink ref="D45" r:id="rId44"/>
+    <hyperlink ref="D46" r:id="rId45"/>
+    <hyperlink ref="D47" r:id="rId46"/>
+    <hyperlink ref="D48" r:id="rId47"/>
+    <hyperlink ref="D49" r:id="rId48"/>
+    <hyperlink ref="D50" r:id="rId49"/>
+    <hyperlink ref="D51" r:id="rId50"/>
+    <hyperlink ref="D53" r:id="rId51"/>
+    <hyperlink ref="D54" r:id="rId52"/>
+    <hyperlink ref="D55" r:id="rId53"/>
+    <hyperlink ref="D56" r:id="rId54"/>
+    <hyperlink ref="D57" r:id="rId55"/>
+    <hyperlink ref="D58" r:id="rId56"/>
+    <hyperlink ref="D59" r:id="rId57"/>
+    <hyperlink ref="D60" r:id="rId58"/>
+    <hyperlink ref="D61" r:id="rId59"/>
+    <hyperlink ref="D62" r:id="rId60"/>
+    <hyperlink ref="D63" r:id="rId61"/>
+    <hyperlink ref="D64" r:id="rId62"/>
+    <hyperlink ref="D65" r:id="rId63"/>
+    <hyperlink ref="D66" r:id="rId64"/>
+    <hyperlink ref="D67" r:id="rId65"/>
+    <hyperlink ref="D68" r:id="rId66"/>
+    <hyperlink ref="D69" r:id="rId67"/>
+    <hyperlink ref="D70" r:id="rId68"/>
+    <hyperlink ref="D71" r:id="rId69"/>
+    <hyperlink ref="D72" r:id="rId70"/>
+    <hyperlink ref="D73" r:id="rId71"/>
+    <hyperlink ref="D74" r:id="rId72"/>
+    <hyperlink ref="D75" r:id="rId73"/>
+    <hyperlink ref="D76" r:id="rId74"/>
+    <hyperlink ref="D77" r:id="rId75"/>
+    <hyperlink ref="D78" r:id="rId76"/>
+    <hyperlink ref="D79" r:id="rId77"/>
+    <hyperlink ref="D80" r:id="rId78"/>
+    <hyperlink ref="D81" r:id="rId79"/>
+    <hyperlink ref="D82" r:id="rId80"/>
+    <hyperlink ref="D83" r:id="rId81"/>
+    <hyperlink ref="D84" r:id="rId82"/>
+    <hyperlink ref="D85" r:id="rId83"/>
+    <hyperlink ref="D86" r:id="rId84"/>
+    <hyperlink ref="D87" r:id="rId85"/>
+    <hyperlink ref="D88" r:id="rId86"/>
+    <hyperlink ref="D89" r:id="rId87"/>
+    <hyperlink ref="D90" r:id="rId88"/>
+    <hyperlink ref="D91" r:id="rId89"/>
+    <hyperlink ref="D93" r:id="rId90"/>
+    <hyperlink ref="D94" r:id="rId91"/>
+    <hyperlink ref="D95" r:id="rId92"/>
+    <hyperlink ref="D96" r:id="rId93"/>
+    <hyperlink ref="D97" r:id="rId94"/>
+    <hyperlink ref="D98" r:id="rId95"/>
+    <hyperlink ref="D99" r:id="rId96"/>
+    <hyperlink ref="D100" r:id="rId97"/>
+    <hyperlink ref="D101" r:id="rId98"/>
+    <hyperlink ref="D102" r:id="rId99"/>
+    <hyperlink ref="D103" r:id="rId100"/>
+    <hyperlink ref="D104" r:id="rId101"/>
+    <hyperlink ref="D105" r:id="rId102"/>
+    <hyperlink ref="D106" r:id="rId103"/>
+    <hyperlink ref="D107" r:id="rId104"/>
+    <hyperlink ref="D108" r:id="rId105"/>
+    <hyperlink ref="D109" r:id="rId106"/>
+    <hyperlink ref="D110" r:id="rId107"/>
+    <hyperlink ref="D111" r:id="rId108"/>
+    <hyperlink ref="D112" r:id="rId109"/>
+    <hyperlink ref="D113" r:id="rId110"/>
+    <hyperlink ref="D114" r:id="rId111"/>
+    <hyperlink ref="D115" r:id="rId112"/>
+    <hyperlink ref="D116" r:id="rId113"/>
+    <hyperlink ref="D117" r:id="rId114"/>
+    <hyperlink ref="D118" r:id="rId115"/>
+    <hyperlink ref="D119" r:id="rId116"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{099D6286-32AD-4A4F-A5CC-55610C8FF19C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F94"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection sqref="A1:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="3"/>
-    <col min="2" max="2" width="0" style="3" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="59.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="0" style="3" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="13" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" style="3"/>
@@ -17798,7 +17797,7 @@
         <v>4746</v>
       </c>
       <c r="F66" s="22">
-        <f t="shared" ref="F66:F97" si="3">+E66/$E$95</f>
+        <f t="shared" ref="F66:F94" si="3">+E66/$E$95</f>
         <v>2.5926521190694661E-3</v>
       </c>
       <c r="G66" s="8">
@@ -19658,118 +19657,118 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="D9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="D10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="D11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="D12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="D13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="D14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="D15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="D16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="D17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="D18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="D19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="D20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="D21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="D22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="D23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="D24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="D25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="D26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="D27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="D28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="D29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="D30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="D31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="D32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="D33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="D34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="D35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="D36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="D37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="D38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="D39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="D40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="D41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="D42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="D43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="D44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="D45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="D46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="D47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="D48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="D49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="D50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="D51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="D52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="D53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="D54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="D55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="D56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="D57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="D58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="D59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="D60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="D61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="D62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="D63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="D64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="D65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="D66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="D67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="D68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="D69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="D70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="D71" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="D72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="D73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="D74" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="D75" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="D76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="D77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="D78" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="D79" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="D80" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="D81" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="D82" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="D83" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="D84" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="D85" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="D86" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="D87" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="D88" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="D89" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="D90" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="D91" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="D92" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="D93" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="D94" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13"/>
+    <hyperlink ref="D15" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="D18" r:id="rId17"/>
+    <hyperlink ref="D19" r:id="rId18"/>
+    <hyperlink ref="D20" r:id="rId19"/>
+    <hyperlink ref="D21" r:id="rId20"/>
+    <hyperlink ref="D22" r:id="rId21"/>
+    <hyperlink ref="D23" r:id="rId22"/>
+    <hyperlink ref="D24" r:id="rId23"/>
+    <hyperlink ref="D25" r:id="rId24"/>
+    <hyperlink ref="D26" r:id="rId25"/>
+    <hyperlink ref="D27" r:id="rId26"/>
+    <hyperlink ref="D28" r:id="rId27"/>
+    <hyperlink ref="D29" r:id="rId28"/>
+    <hyperlink ref="D30" r:id="rId29"/>
+    <hyperlink ref="D31" r:id="rId30"/>
+    <hyperlink ref="D32" r:id="rId31"/>
+    <hyperlink ref="D33" r:id="rId32"/>
+    <hyperlink ref="D34" r:id="rId33"/>
+    <hyperlink ref="D35" r:id="rId34"/>
+    <hyperlink ref="D36" r:id="rId35"/>
+    <hyperlink ref="D37" r:id="rId36"/>
+    <hyperlink ref="D38" r:id="rId37"/>
+    <hyperlink ref="D39" r:id="rId38"/>
+    <hyperlink ref="D40" r:id="rId39"/>
+    <hyperlink ref="D41" r:id="rId40"/>
+    <hyperlink ref="D42" r:id="rId41"/>
+    <hyperlink ref="D43" r:id="rId42"/>
+    <hyperlink ref="D44" r:id="rId43"/>
+    <hyperlink ref="D45" r:id="rId44"/>
+    <hyperlink ref="D46" r:id="rId45"/>
+    <hyperlink ref="D47" r:id="rId46"/>
+    <hyperlink ref="D48" r:id="rId47"/>
+    <hyperlink ref="D49" r:id="rId48"/>
+    <hyperlink ref="D50" r:id="rId49"/>
+    <hyperlink ref="D51" r:id="rId50"/>
+    <hyperlink ref="D52" r:id="rId51"/>
+    <hyperlink ref="D53" r:id="rId52"/>
+    <hyperlink ref="D54" r:id="rId53"/>
+    <hyperlink ref="D55" r:id="rId54"/>
+    <hyperlink ref="D56" r:id="rId55"/>
+    <hyperlink ref="D57" r:id="rId56"/>
+    <hyperlink ref="D58" r:id="rId57"/>
+    <hyperlink ref="D59" r:id="rId58"/>
+    <hyperlink ref="D60" r:id="rId59"/>
+    <hyperlink ref="D61" r:id="rId60"/>
+    <hyperlink ref="D62" r:id="rId61"/>
+    <hyperlink ref="D63" r:id="rId62"/>
+    <hyperlink ref="D64" r:id="rId63"/>
+    <hyperlink ref="D65" r:id="rId64"/>
+    <hyperlink ref="D66" r:id="rId65"/>
+    <hyperlink ref="D67" r:id="rId66"/>
+    <hyperlink ref="D68" r:id="rId67"/>
+    <hyperlink ref="D69" r:id="rId68"/>
+    <hyperlink ref="D70" r:id="rId69"/>
+    <hyperlink ref="D71" r:id="rId70"/>
+    <hyperlink ref="D72" r:id="rId71"/>
+    <hyperlink ref="D73" r:id="rId72"/>
+    <hyperlink ref="D74" r:id="rId73"/>
+    <hyperlink ref="D75" r:id="rId74"/>
+    <hyperlink ref="D76" r:id="rId75"/>
+    <hyperlink ref="D77" r:id="rId76"/>
+    <hyperlink ref="D78" r:id="rId77"/>
+    <hyperlink ref="D79" r:id="rId78"/>
+    <hyperlink ref="D80" r:id="rId79"/>
+    <hyperlink ref="D81" r:id="rId80"/>
+    <hyperlink ref="D82" r:id="rId81"/>
+    <hyperlink ref="D83" r:id="rId82"/>
+    <hyperlink ref="D84" r:id="rId83"/>
+    <hyperlink ref="D85" r:id="rId84"/>
+    <hyperlink ref="D86" r:id="rId85"/>
+    <hyperlink ref="D87" r:id="rId86"/>
+    <hyperlink ref="D88" r:id="rId87"/>
+    <hyperlink ref="D89" r:id="rId88"/>
+    <hyperlink ref="D90" r:id="rId89"/>
+    <hyperlink ref="D91" r:id="rId90"/>
+    <hyperlink ref="D92" r:id="rId91"/>
+    <hyperlink ref="D93" r:id="rId92"/>
+    <hyperlink ref="D94" r:id="rId93"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22E96E9C-9B88-42F4-BC6E-0C8EF2CAD756}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T171"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F170"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection sqref="A1:D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="3"/>
-    <col min="2" max="2" width="0" style="3" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="6" style="3" customWidth="1"/>
     <col min="3" max="3" width="60.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="0" style="3" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" style="3" customWidth="1"/>
     <col min="5" max="5" width="13" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" style="3"/>
@@ -30667,186 +30666,186 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="D9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="D10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="D11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="D12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="D13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="D14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="D15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="D16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="D17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="D18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="D19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="D20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="D21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="D22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="D23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="D24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="D25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="D26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="D27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="D28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="D29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="D30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="D31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="D32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="D33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="D34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="D35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="D36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="D37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="D38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="D39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="D40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="D41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="D42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="D43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="D44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="D45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="D46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="D47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="D48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="D49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="D50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="D51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="D52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="D53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="D54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="D55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="D56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="D57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="D58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="D59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="D60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="D61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="D62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="D63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="D64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="D65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="D66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="D67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="D68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="D69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="D70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="D71" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="D72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="D73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="D74" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="D75" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="D76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="D77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="D78" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="D79" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="D80" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="D81" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="D82" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="D83" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="D84" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="D85" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="D86" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="D87" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="D88" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="D89" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="D90" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="D91" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="D92" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="D93" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="D94" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="D95" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="D96" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="D97" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="D98" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="D99" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="D100" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="D101" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="D102" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="D103" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="D104" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="D105" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="D106" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="D107" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="D108" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="D109" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="D110" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="D111" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="D112" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="D113" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="D114" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="D115" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="D116" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="D117" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="D118" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="D119" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="D120" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="D121" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="D122" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="D123" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="D124" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="D125" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="D126" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="D127" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="D128" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="D129" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="D130" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="D131" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="D132" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="D133" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="D134" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="D135" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="D136" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="D137" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="D138" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="D139" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="D140" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="D141" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="D142" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="D143" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="D144" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="D145" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="D146" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="D147" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="D148" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="D149" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="D150" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="D151" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="D152" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="D153" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="D154" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="D155" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="D156" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="D157" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="D158" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="D159" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="D160" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="D161" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="D162" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="D163" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="D164" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="D165" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="D166" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="D167" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="D168" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="D169" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="D170" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13"/>
+    <hyperlink ref="D15" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="D18" r:id="rId17"/>
+    <hyperlink ref="D19" r:id="rId18"/>
+    <hyperlink ref="D20" r:id="rId19"/>
+    <hyperlink ref="D21" r:id="rId20"/>
+    <hyperlink ref="D22" r:id="rId21"/>
+    <hyperlink ref="D23" r:id="rId22"/>
+    <hyperlink ref="D24" r:id="rId23"/>
+    <hyperlink ref="D25" r:id="rId24"/>
+    <hyperlink ref="D26" r:id="rId25"/>
+    <hyperlink ref="D27" r:id="rId26"/>
+    <hyperlink ref="D28" r:id="rId27"/>
+    <hyperlink ref="D29" r:id="rId28"/>
+    <hyperlink ref="D30" r:id="rId29"/>
+    <hyperlink ref="D31" r:id="rId30"/>
+    <hyperlink ref="D32" r:id="rId31"/>
+    <hyperlink ref="D33" r:id="rId32"/>
+    <hyperlink ref="D34" r:id="rId33"/>
+    <hyperlink ref="D35" r:id="rId34"/>
+    <hyperlink ref="D36" r:id="rId35"/>
+    <hyperlink ref="D37" r:id="rId36"/>
+    <hyperlink ref="D38" r:id="rId37"/>
+    <hyperlink ref="D39" r:id="rId38"/>
+    <hyperlink ref="D40" r:id="rId39"/>
+    <hyperlink ref="D41" r:id="rId40"/>
+    <hyperlink ref="D42" r:id="rId41"/>
+    <hyperlink ref="D43" r:id="rId42"/>
+    <hyperlink ref="D44" r:id="rId43"/>
+    <hyperlink ref="D45" r:id="rId44"/>
+    <hyperlink ref="D46" r:id="rId45"/>
+    <hyperlink ref="D47" r:id="rId46"/>
+    <hyperlink ref="D48" r:id="rId47"/>
+    <hyperlink ref="D49" r:id="rId48"/>
+    <hyperlink ref="D50" r:id="rId49"/>
+    <hyperlink ref="D51" r:id="rId50"/>
+    <hyperlink ref="D52" r:id="rId51"/>
+    <hyperlink ref="D53" r:id="rId52"/>
+    <hyperlink ref="D54" r:id="rId53"/>
+    <hyperlink ref="D55" r:id="rId54"/>
+    <hyperlink ref="D56" r:id="rId55"/>
+    <hyperlink ref="D57" r:id="rId56"/>
+    <hyperlink ref="D58" r:id="rId57"/>
+    <hyperlink ref="D59" r:id="rId58"/>
+    <hyperlink ref="D60" r:id="rId59"/>
+    <hyperlink ref="D61" r:id="rId60"/>
+    <hyperlink ref="D62" r:id="rId61"/>
+    <hyperlink ref="D63" r:id="rId62"/>
+    <hyperlink ref="D64" r:id="rId63"/>
+    <hyperlink ref="D65" r:id="rId64"/>
+    <hyperlink ref="D66" r:id="rId65"/>
+    <hyperlink ref="D67" r:id="rId66"/>
+    <hyperlink ref="D68" r:id="rId67"/>
+    <hyperlink ref="D69" r:id="rId68"/>
+    <hyperlink ref="D70" r:id="rId69"/>
+    <hyperlink ref="D71" r:id="rId70"/>
+    <hyperlink ref="D72" r:id="rId71"/>
+    <hyperlink ref="D73" r:id="rId72"/>
+    <hyperlink ref="D74" r:id="rId73"/>
+    <hyperlink ref="D75" r:id="rId74"/>
+    <hyperlink ref="D76" r:id="rId75"/>
+    <hyperlink ref="D77" r:id="rId76"/>
+    <hyperlink ref="D78" r:id="rId77"/>
+    <hyperlink ref="D79" r:id="rId78"/>
+    <hyperlink ref="D80" r:id="rId79"/>
+    <hyperlink ref="D81" r:id="rId80"/>
+    <hyperlink ref="D82" r:id="rId81"/>
+    <hyperlink ref="D83" r:id="rId82"/>
+    <hyperlink ref="D84" r:id="rId83"/>
+    <hyperlink ref="D85" r:id="rId84"/>
+    <hyperlink ref="D86" r:id="rId85"/>
+    <hyperlink ref="D87" r:id="rId86"/>
+    <hyperlink ref="D88" r:id="rId87"/>
+    <hyperlink ref="D89" r:id="rId88"/>
+    <hyperlink ref="D90" r:id="rId89"/>
+    <hyperlink ref="D91" r:id="rId90"/>
+    <hyperlink ref="D92" r:id="rId91"/>
+    <hyperlink ref="D93" r:id="rId92"/>
+    <hyperlink ref="D94" r:id="rId93"/>
+    <hyperlink ref="D95" r:id="rId94"/>
+    <hyperlink ref="D96" r:id="rId95"/>
+    <hyperlink ref="D97" r:id="rId96"/>
+    <hyperlink ref="D98" r:id="rId97"/>
+    <hyperlink ref="D99" r:id="rId98"/>
+    <hyperlink ref="D100" r:id="rId99"/>
+    <hyperlink ref="D101" r:id="rId100"/>
+    <hyperlink ref="D102" r:id="rId101"/>
+    <hyperlink ref="D103" r:id="rId102"/>
+    <hyperlink ref="D104" r:id="rId103"/>
+    <hyperlink ref="D105" r:id="rId104"/>
+    <hyperlink ref="D106" r:id="rId105"/>
+    <hyperlink ref="D107" r:id="rId106"/>
+    <hyperlink ref="D108" r:id="rId107"/>
+    <hyperlink ref="D109" r:id="rId108"/>
+    <hyperlink ref="D110" r:id="rId109"/>
+    <hyperlink ref="D111" r:id="rId110"/>
+    <hyperlink ref="D112" r:id="rId111"/>
+    <hyperlink ref="D113" r:id="rId112"/>
+    <hyperlink ref="D114" r:id="rId113"/>
+    <hyperlink ref="D115" r:id="rId114"/>
+    <hyperlink ref="D116" r:id="rId115"/>
+    <hyperlink ref="D117" r:id="rId116"/>
+    <hyperlink ref="D118" r:id="rId117"/>
+    <hyperlink ref="D119" r:id="rId118"/>
+    <hyperlink ref="D120" r:id="rId119"/>
+    <hyperlink ref="D121" r:id="rId120"/>
+    <hyperlink ref="D122" r:id="rId121"/>
+    <hyperlink ref="D123" r:id="rId122"/>
+    <hyperlink ref="D124" r:id="rId123"/>
+    <hyperlink ref="D125" r:id="rId124"/>
+    <hyperlink ref="D126" r:id="rId125"/>
+    <hyperlink ref="D127" r:id="rId126"/>
+    <hyperlink ref="D128" r:id="rId127"/>
+    <hyperlink ref="D129" r:id="rId128"/>
+    <hyperlink ref="D130" r:id="rId129"/>
+    <hyperlink ref="D131" r:id="rId130"/>
+    <hyperlink ref="D132" r:id="rId131"/>
+    <hyperlink ref="D133" r:id="rId132"/>
+    <hyperlink ref="D134" r:id="rId133"/>
+    <hyperlink ref="D135" r:id="rId134"/>
+    <hyperlink ref="D136" r:id="rId135"/>
+    <hyperlink ref="D137" r:id="rId136"/>
+    <hyperlink ref="D138" r:id="rId137"/>
+    <hyperlink ref="D139" r:id="rId138"/>
+    <hyperlink ref="D140" r:id="rId139"/>
+    <hyperlink ref="D141" r:id="rId140"/>
+    <hyperlink ref="D142" r:id="rId141"/>
+    <hyperlink ref="D143" r:id="rId142"/>
+    <hyperlink ref="D144" r:id="rId143"/>
+    <hyperlink ref="D145" r:id="rId144"/>
+    <hyperlink ref="D146" r:id="rId145"/>
+    <hyperlink ref="D147" r:id="rId146"/>
+    <hyperlink ref="D148" r:id="rId147"/>
+    <hyperlink ref="D149" r:id="rId148"/>
+    <hyperlink ref="D150" r:id="rId149"/>
+    <hyperlink ref="D151" r:id="rId150"/>
+    <hyperlink ref="D152" r:id="rId151"/>
+    <hyperlink ref="D153" r:id="rId152"/>
+    <hyperlink ref="D154" r:id="rId153"/>
+    <hyperlink ref="D155" r:id="rId154"/>
+    <hyperlink ref="D156" r:id="rId155"/>
+    <hyperlink ref="D157" r:id="rId156"/>
+    <hyperlink ref="D158" r:id="rId157"/>
+    <hyperlink ref="D159" r:id="rId158"/>
+    <hyperlink ref="D160" r:id="rId159"/>
+    <hyperlink ref="D161" r:id="rId160"/>
+    <hyperlink ref="D162" r:id="rId161"/>
+    <hyperlink ref="D163" r:id="rId162"/>
+    <hyperlink ref="D164" r:id="rId163"/>
+    <hyperlink ref="D165" r:id="rId164"/>
+    <hyperlink ref="D166" r:id="rId165"/>
+    <hyperlink ref="D167" r:id="rId166"/>
+    <hyperlink ref="D168" r:id="rId167"/>
+    <hyperlink ref="D169" r:id="rId168"/>
+    <hyperlink ref="D170" r:id="rId169"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{945614DF-A29F-481F-A432-7E00822D6C74}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F97"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30854,7 +30853,7 @@
     <col min="1" max="1" width="11.42578125" style="3"/>
     <col min="2" max="2" width="0" style="3" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="57" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="0" style="3" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="38.85546875" style="3" customWidth="1"/>
     <col min="5" max="5" width="13" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" style="3"/>
@@ -37080,112 +37079,112 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="D9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="D10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="D11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="D12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="D13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="D14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="D15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="D16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="D17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="D18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="D19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="D20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="D21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="D22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="D23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="D25" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="D26" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="D27" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="D28" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="D29" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="D30" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="D31" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="D32" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="D33" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="D34" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="D35" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="D36" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="D37" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="D38" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="D39" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="D40" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="D41" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="D42" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="D43" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="D44" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="D45" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="D46" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="D47" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="D48" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="D49" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="D50" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="D51" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="D52" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="D53" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="D54" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="D55" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="D56" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="D57" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="D58" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="D59" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="D60" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="D61" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="D62" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="D63" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="D64" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="D65" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="D66" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="D67" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="D68" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="D69" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="D70" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="D71" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="D72" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="D73" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="D74" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="D75" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="D76" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="D77" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="D78" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="D79" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="D80" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="D81" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="D82" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="D83" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="D84" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="D85" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="D86" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="D87" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="D88" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="D89" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="D90" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="D91" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="D92" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="D93" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="D94" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="D95" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="D96" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="D97" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13"/>
+    <hyperlink ref="D15" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="D18" r:id="rId17"/>
+    <hyperlink ref="D19" r:id="rId18"/>
+    <hyperlink ref="D20" r:id="rId19"/>
+    <hyperlink ref="D21" r:id="rId20"/>
+    <hyperlink ref="D22" r:id="rId21"/>
+    <hyperlink ref="D23" r:id="rId22"/>
+    <hyperlink ref="D25" r:id="rId23"/>
+    <hyperlink ref="D26" r:id="rId24"/>
+    <hyperlink ref="D27" r:id="rId25"/>
+    <hyperlink ref="D28" r:id="rId26"/>
+    <hyperlink ref="D29" r:id="rId27"/>
+    <hyperlink ref="D30" r:id="rId28"/>
+    <hyperlink ref="D31" r:id="rId29"/>
+    <hyperlink ref="D32" r:id="rId30"/>
+    <hyperlink ref="D33" r:id="rId31"/>
+    <hyperlink ref="D34" r:id="rId32"/>
+    <hyperlink ref="D35" r:id="rId33"/>
+    <hyperlink ref="D36" r:id="rId34"/>
+    <hyperlink ref="D37" r:id="rId35"/>
+    <hyperlink ref="D38" r:id="rId36"/>
+    <hyperlink ref="D39" r:id="rId37"/>
+    <hyperlink ref="D40" r:id="rId38"/>
+    <hyperlink ref="D41" r:id="rId39"/>
+    <hyperlink ref="D42" r:id="rId40"/>
+    <hyperlink ref="D43" r:id="rId41"/>
+    <hyperlink ref="D44" r:id="rId42"/>
+    <hyperlink ref="D45" r:id="rId43"/>
+    <hyperlink ref="D46" r:id="rId44"/>
+    <hyperlink ref="D47" r:id="rId45"/>
+    <hyperlink ref="D48" r:id="rId46"/>
+    <hyperlink ref="D49" r:id="rId47"/>
+    <hyperlink ref="D50" r:id="rId48"/>
+    <hyperlink ref="D51" r:id="rId49"/>
+    <hyperlink ref="D52" r:id="rId50"/>
+    <hyperlink ref="D53" r:id="rId51"/>
+    <hyperlink ref="D54" r:id="rId52"/>
+    <hyperlink ref="D55" r:id="rId53"/>
+    <hyperlink ref="D56" r:id="rId54"/>
+    <hyperlink ref="D57" r:id="rId55"/>
+    <hyperlink ref="D58" r:id="rId56"/>
+    <hyperlink ref="D59" r:id="rId57"/>
+    <hyperlink ref="D60" r:id="rId58"/>
+    <hyperlink ref="D61" r:id="rId59"/>
+    <hyperlink ref="D62" r:id="rId60"/>
+    <hyperlink ref="D63" r:id="rId61"/>
+    <hyperlink ref="D64" r:id="rId62"/>
+    <hyperlink ref="D65" r:id="rId63"/>
+    <hyperlink ref="D66" r:id="rId64"/>
+    <hyperlink ref="D67" r:id="rId65"/>
+    <hyperlink ref="D68" r:id="rId66"/>
+    <hyperlink ref="D69" r:id="rId67"/>
+    <hyperlink ref="D70" r:id="rId68"/>
+    <hyperlink ref="D71" r:id="rId69"/>
+    <hyperlink ref="D72" r:id="rId70"/>
+    <hyperlink ref="D73" r:id="rId71"/>
+    <hyperlink ref="D74" r:id="rId72"/>
+    <hyperlink ref="D75" r:id="rId73"/>
+    <hyperlink ref="D76" r:id="rId74"/>
+    <hyperlink ref="D77" r:id="rId75"/>
+    <hyperlink ref="D78" r:id="rId76"/>
+    <hyperlink ref="D79" r:id="rId77"/>
+    <hyperlink ref="D80" r:id="rId78"/>
+    <hyperlink ref="D81" r:id="rId79"/>
+    <hyperlink ref="D82" r:id="rId80"/>
+    <hyperlink ref="D83" r:id="rId81"/>
+    <hyperlink ref="D84" r:id="rId82"/>
+    <hyperlink ref="D85" r:id="rId83"/>
+    <hyperlink ref="D86" r:id="rId84"/>
+    <hyperlink ref="D87" r:id="rId85"/>
+    <hyperlink ref="D88" r:id="rId86"/>
+    <hyperlink ref="D89" r:id="rId87"/>
+    <hyperlink ref="D90" r:id="rId88"/>
+    <hyperlink ref="D91" r:id="rId89"/>
+    <hyperlink ref="D92" r:id="rId90"/>
+    <hyperlink ref="D93" r:id="rId91"/>
+    <hyperlink ref="D94" r:id="rId92"/>
+    <hyperlink ref="D95" r:id="rId93"/>
+    <hyperlink ref="D96" r:id="rId94"/>
+    <hyperlink ref="D97" r:id="rId95"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFCCA24C-74BD-4CD8-84EC-CC88D0AB66F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F114"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44507,117 +44506,117 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="D9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="D10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="D11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="D12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="D13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="D14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="D15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="D16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="D17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="D18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="D19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="D20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="D21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="D22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="D23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="D24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="D25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="D26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="D27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="D28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="D29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="D30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="D31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="D32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="D33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="D34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="D35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="D36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="D37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="D38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="D39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="D40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="D43" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="D44" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="D45" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="D46" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="D47" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="D48" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="D49" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="D50" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="D51" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="D52" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="D53" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="D54" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="D55" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="D56" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="D57" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="D58" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="D59" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="D60" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="D61" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="D62" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="D63" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="D64" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="D65" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="D66" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="D67" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="D68" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="D69" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="D70" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="D71" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="D72" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="D73" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="D74" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="D75" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="D76" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="D77" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="D78" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="D79" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="D80" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="D81" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="D82" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="D83" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="D84" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="D85" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="D86" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="D87" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="D88" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="D89" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="D90" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="D91" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="D92" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="D93" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="D94" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="D95" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="D96" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="D97" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="D98" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="D99" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="D100" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="D101" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="D102" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="D103" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="D104" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="D105" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="D106" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="D107" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="D108" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="D109" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="D110" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="D111" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="D112" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="D113" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="D114" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="D9" r:id="rId8"/>
+    <hyperlink ref="D10" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId10"/>
+    <hyperlink ref="D12" r:id="rId11"/>
+    <hyperlink ref="D13" r:id="rId12"/>
+    <hyperlink ref="D14" r:id="rId13"/>
+    <hyperlink ref="D15" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D17" r:id="rId16"/>
+    <hyperlink ref="D18" r:id="rId17"/>
+    <hyperlink ref="D19" r:id="rId18"/>
+    <hyperlink ref="D20" r:id="rId19"/>
+    <hyperlink ref="D21" r:id="rId20"/>
+    <hyperlink ref="D22" r:id="rId21"/>
+    <hyperlink ref="D23" r:id="rId22"/>
+    <hyperlink ref="D24" r:id="rId23"/>
+    <hyperlink ref="D25" r:id="rId24"/>
+    <hyperlink ref="D26" r:id="rId25"/>
+    <hyperlink ref="D27" r:id="rId26"/>
+    <hyperlink ref="D28" r:id="rId27"/>
+    <hyperlink ref="D29" r:id="rId28"/>
+    <hyperlink ref="D30" r:id="rId29"/>
+    <hyperlink ref="D31" r:id="rId30"/>
+    <hyperlink ref="D32" r:id="rId31"/>
+    <hyperlink ref="D33" r:id="rId32"/>
+    <hyperlink ref="D34" r:id="rId33"/>
+    <hyperlink ref="D35" r:id="rId34"/>
+    <hyperlink ref="D36" r:id="rId35"/>
+    <hyperlink ref="D37" r:id="rId36"/>
+    <hyperlink ref="D38" r:id="rId37"/>
+    <hyperlink ref="D39" r:id="rId38"/>
+    <hyperlink ref="D40" r:id="rId39"/>
+    <hyperlink ref="D43" r:id="rId40"/>
+    <hyperlink ref="D44" r:id="rId41"/>
+    <hyperlink ref="D45" r:id="rId42"/>
+    <hyperlink ref="D46" r:id="rId43"/>
+    <hyperlink ref="D47" r:id="rId44"/>
+    <hyperlink ref="D48" r:id="rId45"/>
+    <hyperlink ref="D49" r:id="rId46"/>
+    <hyperlink ref="D50" r:id="rId47"/>
+    <hyperlink ref="D51" r:id="rId48"/>
+    <hyperlink ref="D52" r:id="rId49"/>
+    <hyperlink ref="D53" r:id="rId50"/>
+    <hyperlink ref="D54" r:id="rId51"/>
+    <hyperlink ref="D55" r:id="rId52"/>
+    <hyperlink ref="D56" r:id="rId53"/>
+    <hyperlink ref="D57" r:id="rId54"/>
+    <hyperlink ref="D58" r:id="rId55"/>
+    <hyperlink ref="D59" r:id="rId56"/>
+    <hyperlink ref="D60" r:id="rId57"/>
+    <hyperlink ref="D61" r:id="rId58"/>
+    <hyperlink ref="D62" r:id="rId59"/>
+    <hyperlink ref="D63" r:id="rId60"/>
+    <hyperlink ref="D64" r:id="rId61"/>
+    <hyperlink ref="D65" r:id="rId62"/>
+    <hyperlink ref="D66" r:id="rId63"/>
+    <hyperlink ref="D67" r:id="rId64"/>
+    <hyperlink ref="D68" r:id="rId65"/>
+    <hyperlink ref="D69" r:id="rId66"/>
+    <hyperlink ref="D70" r:id="rId67"/>
+    <hyperlink ref="D71" r:id="rId68"/>
+    <hyperlink ref="D72" r:id="rId69"/>
+    <hyperlink ref="D73" r:id="rId70"/>
+    <hyperlink ref="D74" r:id="rId71"/>
+    <hyperlink ref="D75" r:id="rId72"/>
+    <hyperlink ref="D76" r:id="rId73"/>
+    <hyperlink ref="D77" r:id="rId74"/>
+    <hyperlink ref="D78" r:id="rId75"/>
+    <hyperlink ref="D79" r:id="rId76"/>
+    <hyperlink ref="D80" r:id="rId77"/>
+    <hyperlink ref="D81" r:id="rId78"/>
+    <hyperlink ref="D82" r:id="rId79"/>
+    <hyperlink ref="D83" r:id="rId80"/>
+    <hyperlink ref="D84" r:id="rId81"/>
+    <hyperlink ref="D85" r:id="rId82"/>
+    <hyperlink ref="D86" r:id="rId83"/>
+    <hyperlink ref="D87" r:id="rId84"/>
+    <hyperlink ref="D88" r:id="rId85"/>
+    <hyperlink ref="D89" r:id="rId86"/>
+    <hyperlink ref="D90" r:id="rId87"/>
+    <hyperlink ref="D91" r:id="rId88"/>
+    <hyperlink ref="D92" r:id="rId89"/>
+    <hyperlink ref="D93" r:id="rId90"/>
+    <hyperlink ref="D94" r:id="rId91"/>
+    <hyperlink ref="D95" r:id="rId92"/>
+    <hyperlink ref="D96" r:id="rId93"/>
+    <hyperlink ref="D97" r:id="rId94"/>
+    <hyperlink ref="D98" r:id="rId95"/>
+    <hyperlink ref="D99" r:id="rId96"/>
+    <hyperlink ref="D100" r:id="rId97"/>
+    <hyperlink ref="D101" r:id="rId98"/>
+    <hyperlink ref="D102" r:id="rId99"/>
+    <hyperlink ref="D103" r:id="rId100"/>
+    <hyperlink ref="D104" r:id="rId101"/>
+    <hyperlink ref="D105" r:id="rId102"/>
+    <hyperlink ref="D106" r:id="rId103"/>
+    <hyperlink ref="D107" r:id="rId104"/>
+    <hyperlink ref="D108" r:id="rId105"/>
+    <hyperlink ref="D109" r:id="rId106"/>
+    <hyperlink ref="D110" r:id="rId107"/>
+    <hyperlink ref="D111" r:id="rId108"/>
+    <hyperlink ref="D112" r:id="rId109"/>
+    <hyperlink ref="D113" r:id="rId110"/>
+    <hyperlink ref="D114" r:id="rId111"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
